--- a/国赛数据集/测试topsis.xlsx
+++ b/国赛数据集/测试topsis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\py\国赛数据集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25800\Desktop\project\my_code\国赛数据集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C685C912-EBDA-49A9-BE26-04E40A0A7752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF575419-F891-44CF-B10E-73FBD4CE33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1980" windowWidth="13845" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="2265" windowWidth="19305" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,37 +24,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>风景</t>
+  </si>
+  <si>
+    <t>人文</t>
+  </si>
+  <si>
+    <t>拥挤程度</t>
+  </si>
+  <si>
+    <t>票价</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>PH值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>风景地点</t>
-  </si>
-  <si>
-    <t>风景</t>
-  </si>
-  <si>
-    <t>人文</t>
-  </si>
-  <si>
-    <t>拥挤程度</t>
-  </si>
-  <si>
-    <t>票价</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>PH值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,120 +438,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>8</v>
